--- a/Registro_deActividades.xlsx
+++ b/Registro_deActividades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaito\Desktop\Semestre-2021-1\1645\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaito\Desktop\Semestre-2021-1\1645-Diseno_Digital_Moderno_2021-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7338F-42AF-4FFD-BCAE-B6EC1CAA1EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051C230-6AA1-4F98-9168-8F5CAFADFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{49A6EE8B-1464-4CCF-A474-1FC1C12E61EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{49A6EE8B-1464-4CCF-A474-1FC1C12E61EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
   <si>
     <t>Kambalam</t>
   </si>
@@ -232,12 +232,6 @@
     <t>Siempre en domingo</t>
   </si>
   <si>
-    <t>mult 2 palabras de 3 bits</t>
-  </si>
-  <si>
-    <t>densidad de los transistores en la historia de los micros</t>
-  </si>
-  <si>
     <t>dec 5x32</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Mclauskey github</t>
   </si>
   <si>
-    <t>mux 4x1.ab,cd</t>
-  </si>
-  <si>
     <t>risc y cisc</t>
   </si>
   <si>
@@ -293,6 +284,24 @@
   </si>
   <si>
     <t>El despertar del Tercer Ojo</t>
+  </si>
+  <si>
+    <t>Diseñar un multiplicador de 2 palabras A y B de tres bits cada una</t>
+  </si>
+  <si>
+    <t>Densidad de los transistores en la historia de los micros</t>
+  </si>
+  <si>
+    <t>Diseñar un selector de 4 dispositivos de  corriente alterna</t>
+  </si>
+  <si>
+    <t>Ben Hur</t>
+  </si>
+  <si>
+    <t>Ben Hur 2</t>
+  </si>
+  <si>
+    <t>Implementar las siguientes funciones boleanas usando dec 4x16</t>
   </si>
 </sst>
 </file>
@@ -414,6 +423,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -424,6 +443,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -444,16 +473,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -479,16 +498,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1019,7 +1028,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1124,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,6 +1927,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>440910</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444870</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD90DE-8F43-46A5-BC8D-464EC9801D6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8384760" y="887400"/>
+            <a:ext cx="3960" cy="3240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD90DE-8F43-46A5-BC8D-464EC9801D6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8380440" y="883080"/>
+              <a:ext cx="12600" cy="11880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-01-14T16:14:52.007"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 1 3916 0 0,'-4'2'10087'0'0,"1"1"-6747"0"0,0 0-4941 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E902D712-59B7-4053-8E95-2E4DA3BE07A2}" name="Tabla1" displayName="Tabla1" ref="A1:D51" totalsRowShown="0">
   <autoFilter ref="A1:D51" xr:uid="{3E479251-547E-4F5F-80A4-1EEF3E8ADB2C}"/>
@@ -2269,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1A602-E64E-4278-BA69-D519A20AD415}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2425,7 @@
       </c>
       <c r="H2">
         <f>SUM(E:E)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2335,7 +2446,7 @@
       </c>
       <c r="H3">
         <f>H5-H2</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2391,7 +2502,7 @@
       </c>
       <c r="H6">
         <f>(H2/H5)*100</f>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2412,7 +2523,7 @@
       </c>
       <c r="H7">
         <f>100-H6</f>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2837,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2854,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2871,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2888,12 +2999,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2">
         <v>44484</v>
@@ -2905,12 +3016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2">
         <v>44484</v>
@@ -2922,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2939,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2956,12 +3067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2">
         <v>44484</v>
@@ -2973,57 +3084,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2">
         <v>44484</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2">
         <v>44484</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2">
         <v>44484</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2">
         <v>44492</v>
@@ -3033,27 +3151,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>44494</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2">
         <v>44492</v>
@@ -3063,12 +3183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2">
         <v>44492</v>
@@ -3078,12 +3198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2">
         <v>44492</v>
@@ -3098,7 +3218,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2">
         <v>44499</v>
@@ -3113,7 +3233,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2">
         <v>44505</v>
@@ -3128,7 +3248,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>44505</v>
@@ -3176,7 +3296,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3212,7 +3332,7 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3453,7 +3573,7 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3802,7 +3922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC3943-F045-423E-832D-BE8D311EDEBF}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3870,7 +3990,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>44573</v>
@@ -3884,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>44573</v>
@@ -3926,17 +4046,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3952,7 +4072,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,9 +4134,21 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4074,77 +4206,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C21">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C21">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C21">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4265,32 +4397,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C27">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C27">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C27">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4302,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C2B9DD-F5D0-4545-AB90-7E33BA62FF63}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4472,7 @@
         <v>44484</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>30</v>
@@ -4356,7 +4488,15 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="B5" s="1">
+        <v>44896</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4384,7 +4524,7 @@
         <v>44512</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4393,7 +4533,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -4432,20 +4572,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D21">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D21">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Registro_deActividades.xlsx
+++ b/Registro_deActividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaito\Desktop\Semestre-2021-1\1645-Diseno_Digital_Moderno_2021-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051C230-6AA1-4F98-9168-8F5CAFADFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE7F78-A36E-4215-AE7D-82D26623BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{49A6EE8B-1464-4CCF-A474-1FC1C12E61EF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11160" xr2:uid="{49A6EE8B-1464-4CCF-A474-1FC1C12E61EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>Kambalam</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Mclauskey github</t>
   </si>
   <si>
-    <t>risc y cisc</t>
-  </si>
-  <si>
     <t>implementacion jk</t>
   </si>
   <si>
@@ -302,6 +299,15 @@
   </si>
   <si>
     <t>Implementar las siguientes funciones boleanas usando dec 4x16</t>
+  </si>
+  <si>
+    <t>Realizar una investigación de CISC y RIS</t>
+  </si>
+  <si>
+    <t>Diseñar un detector de múltiplos 3 en palabras de 4 Bits (A,B,C,D) utilizando un Multiplexor 4 x1</t>
+  </si>
+  <si>
+    <t>Diseñar un comparador de dos palabras A y B de 4 bits cada una y que detecte cuando A y B son iguales</t>
   </si>
 </sst>
 </file>
@@ -722,6 +728,136 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
@@ -744,140 +880,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1942,8 +1948,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>128640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
@@ -1962,7 +1968,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
@@ -2030,13 +2036,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E902D712-59B7-4053-8E95-2E4DA3BE07A2}" name="Tabla1" displayName="Tabla1" ref="A1:D51" totalsRowShown="0">
-  <autoFilter ref="A1:D51" xr:uid="{3E479251-547E-4F5F-80A4-1EEF3E8ADB2C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E902D712-59B7-4053-8E95-2E4DA3BE07A2}" name="Tabla1" displayName="Tabla1" ref="A1:D55" totalsRowShown="0">
+  <autoFilter ref="A1:D55" xr:uid="{3E479251-547E-4F5F-80A4-1EEF3E8ADB2C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5F7D2BE3-6EFC-48BE-8EDA-A36D9ADF5C19}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{AD2F2805-F28A-48A9-9F11-91DACF5006C3}" name="Columna2"/>
-    <tableColumn id="3" xr3:uid="{7CA8D900-196F-4554-8988-8B2A8D04D8ED}" name="Columna3" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{1B170FC1-03D9-49A7-B3BB-6F9A47D3EB2A}" name="Completado" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{7CA8D900-196F-4554-8988-8B2A8D04D8ED}" name="Columna3" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{1B170FC1-03D9-49A7-B3BB-6F9A47D3EB2A}" name="Completado" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2047,8 +2053,8 @@
   <autoFilter ref="A1:E32" xr:uid="{AE16E7A3-A05F-4E67-96A4-32ADB2994F56}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{03B61998-53E0-4293-AB63-FD751979E748}" name="Repaso"/>
-    <tableColumn id="2" xr3:uid="{943925B6-C42F-404B-BDD7-034EE9E9F466}" name="Completado" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{7325186A-CC48-457C-850D-14FBB3BB8D58}" name="Fecha" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{943925B6-C42F-404B-BDD7-034EE9E9F466}" name="Completado" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{7325186A-CC48-457C-850D-14FBB3BB8D58}" name="Fecha" dataDxfId="46"/>
     <tableColumn id="4" xr3:uid="{E6865B7A-6755-4139-A370-D89B19B1607E}" name="Anotaciones"/>
     <tableColumn id="5" xr3:uid="{E366F3ED-7D01-48C1-B799-FB30B3399D8E}" name="ultima pág"/>
   </tableColumns>
@@ -2378,16 +2384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1A602-E64E-4278-BA69-D519A20AD415}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2417,7 +2423,7 @@
         <v>30</v>
       </c>
       <c r="E2" cm="1">
-        <f t="array" ref="E2:E51">IF(Tabla1[Completado]=Tabla1[[#This Row],[Completado]],1,0)</f>
+        <f t="array" ref="E2:E55">IF(Tabla1[Completado]=Tabla1[[#This Row],[Completado]],1,0)</f>
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -3089,7 +3095,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2">
         <v>44484</v>
@@ -3106,7 +3112,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2">
         <v>44484</v>
@@ -3156,7 +3162,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2">
         <v>44494</v>
@@ -3173,7 +3179,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2">
         <v>44492</v>
@@ -3188,7 +3194,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2">
         <v>44492</v>
@@ -3203,7 +3209,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2">
         <v>44492</v>
@@ -3217,12 +3223,6 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="2">
-        <v>44499</v>
-      </c>
       <c r="D49" s="3"/>
       <c r="E49">
         <v>0</v>
@@ -3232,12 +3232,6 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="2">
-        <v>44505</v>
-      </c>
       <c r="D50" s="3"/>
       <c r="E50">
         <v>0</v>
@@ -3248,50 +3242,98 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2">
-        <v>44505</v>
+        <v>44492</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51">
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44492</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44499</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"'x'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D51">
-    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="x">
+  <conditionalFormatting sqref="D2:D55">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D30 A31:B33 D31:D33 A34:A51">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="x$D:$D">
+  <conditionalFormatting sqref="A1:D30 A31:B33 D31:D33 A34:A55">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3332,7 +3374,7 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,17 +3567,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3573,7 +3615,7 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3897,17 +3939,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B44">
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B44">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B44">
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3990,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>44573</v>
@@ -4004,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
         <v>44573</v>
@@ -4138,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -4147,7 +4189,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -4492,7 +4534,7 @@
         <v>44896</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>30</v>
@@ -4524,7 +4566,7 @@
         <v>44512</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4533,7 +4575,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
     </row>

--- a/Registro_deActividades.xlsx
+++ b/Registro_deActividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaito\Desktop\Semestre-2021-1\1645-Diseno_Digital_Moderno_2021-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE7F78-A36E-4215-AE7D-82D26623BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BBF5D-462A-4591-A499-E58D2AAFE661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11160" xr2:uid="{49A6EE8B-1464-4CCF-A474-1FC1C12E61EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{49A6EE8B-1464-4CCF-A474-1FC1C12E61EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>Kambalam</t>
   </si>
@@ -259,12 +259,6 @@
     <t>osc 55 y con not</t>
   </si>
   <si>
-    <t>que sig jk</t>
-  </si>
-  <si>
-    <t>ff´s rs con nand</t>
-  </si>
-  <si>
     <t>Control de palabras de 8 bits (8 tiempos)</t>
   </si>
   <si>
@@ -308,6 +302,21 @@
   </si>
   <si>
     <t>Diseñar un comparador de dos palabras A y B de 4 bits cada una y que detecte cuando A y B son iguales</t>
+  </si>
+  <si>
+    <t>Como funciona un flip flop rs con compuertas nand</t>
+  </si>
+  <si>
+    <t>Como se implementa un tren de pulsos con un 555</t>
+  </si>
+  <si>
+    <t>Oscilador con compertas not</t>
+  </si>
+  <si>
+    <t>¿Qué significa la JK en el flip flop JK?</t>
+  </si>
+  <si>
+    <t>Diseñar un multiplicador x5 de un dígito en BCD.Se desea implementación mínima</t>
   </si>
 </sst>
 </file>
@@ -728,136 +737,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
@@ -880,10 +759,140 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,7 +1043,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>86</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1139,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,8 +2050,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5F7D2BE3-6EFC-48BE-8EDA-A36D9ADF5C19}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{AD2F2805-F28A-48A9-9F11-91DACF5006C3}" name="Columna2"/>
-    <tableColumn id="3" xr3:uid="{7CA8D900-196F-4554-8988-8B2A8D04D8ED}" name="Columna3" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{1B170FC1-03D9-49A7-B3BB-6F9A47D3EB2A}" name="Completado" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{7CA8D900-196F-4554-8988-8B2A8D04D8ED}" name="Columna3" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{1B170FC1-03D9-49A7-B3BB-6F9A47D3EB2A}" name="Completado" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2053,8 +2062,8 @@
   <autoFilter ref="A1:E32" xr:uid="{AE16E7A3-A05F-4E67-96A4-32ADB2994F56}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{03B61998-53E0-4293-AB63-FD751979E748}" name="Repaso"/>
-    <tableColumn id="2" xr3:uid="{943925B6-C42F-404B-BDD7-034EE9E9F466}" name="Completado" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{7325186A-CC48-457C-850D-14FBB3BB8D58}" name="Fecha" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{943925B6-C42F-404B-BDD7-034EE9E9F466}" name="Completado" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{7325186A-CC48-457C-850D-14FBB3BB8D58}" name="Fecha" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{E6865B7A-6755-4139-A370-D89B19B1607E}" name="Anotaciones"/>
     <tableColumn id="5" xr3:uid="{E366F3ED-7D01-48C1-B799-FB30B3399D8E}" name="ultima pág"/>
   </tableColumns>
@@ -2386,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1A602-E64E-4278-BA69-D519A20AD415}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2440,7 @@
       </c>
       <c r="H2">
         <f>SUM(E:E)</f>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2452,7 +2461,7 @@
       </c>
       <c r="H3">
         <f>H5-H2</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,7 +2496,7 @@
       </c>
       <c r="H5">
         <f>MAX(A:A)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2508,7 +2517,7 @@
       </c>
       <c r="H6">
         <f>(H2/H5)*100</f>
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2529,7 +2538,7 @@
       </c>
       <c r="H7">
         <f>100-H6</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2">
         <v>44484</v>
@@ -3112,7 +3121,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2">
         <v>44484</v>
@@ -3152,9 +3161,11 @@
       <c r="C44" s="2">
         <v>44492</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3162,7 +3173,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2">
         <v>44494</v>
@@ -3179,14 +3190,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2">
         <v>44492</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,14 +3207,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2">
         <v>44492</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,59 +3224,84 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2">
         <v>44492</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44864</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44864</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C51" s="2">
-        <v>44492</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>44864</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2">
-        <v>44492</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>44864</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3303,37 +3343,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>"'x'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D55">
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D30 A31:B33 D31:D33 A34:A55">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3374,7 +3414,7 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,17 +3607,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3615,7 +3655,7 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,17 +3979,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B44">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B44">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B44">
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="x$D:$D">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="x$D:$D">
       <formula>NOT(ISERROR(SEARCH("x$D:$D",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4032,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>44573</v>
@@ -4046,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>44573</v>
@@ -4180,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -4189,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -4477,7 +4517,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,7 +4574,7 @@
         <v>44896</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>30</v>
@@ -4544,6 +4584,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>44864</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4566,7 +4612,7 @@
         <v>44512</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4575,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8"/>
     </row>
